--- a/docs/PT3/PT3_14.08.2024_output.xlsx
+++ b/docs/PT3/PT3_14.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731608664.9191644</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731608665.2350857</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731608664.9191644.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731608665.2350857.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>283.22</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>283.29</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.06999999999999318</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731608667.5695136</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731608668.0657556</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731608667.5695136.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731608668.0657556.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>283.26</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>283.39</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.1299999999999955</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731608670.4193463</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731608671.097967</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731608670.4193463.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731608671.097967.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>282.96</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>282.21</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.75</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -695,95 +729,107 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731608671.284367</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731608671.284367.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+          <t>./test_images/SBERP1731608671.284367.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>282.53</v>
       </c>
-      <c r="J6" t="n">
-        <v>282.53</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>282.27</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.2599999999999909</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731608673.4840825</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731608673.751339</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731608673.4840825.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731608673.751339.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>283.22</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>283.29</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.06999999999999318</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731608675.7105935</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731608676.1475475</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731608675.7105935.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731608676.1475475.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>283.26</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>283.39</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.1299999999999955</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731608678.3826413</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731608679.0332532</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731608678.3826413.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731608679.0332532.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>282.96</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>282.21</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.75</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731608679.2157655</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731608680.0307207</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731608679.2157655.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731608680.0307207.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>282.53</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>284.05</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-1.520000000000039</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.54</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731608681.3450334</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731608681.7261772</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731608681.3450334.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731608681.7261772.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>283.91</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>283.64</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.2700000000000387</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731608681.9699235</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731608683.7320447</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731608681.9699235.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731608683.7320447.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>283.87</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>284.01</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.1399999999999864</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731608685.2836215</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731608686.2866294</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731608685.2836215.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731608686.2866294.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>284.08</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>284.03</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.05000000000001137</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731608687.775123</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731608688.3598237</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731608687.775123.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731608688.3598237.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>283.75</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>283.34</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.410000000000025</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1155,95 +1243,107 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731608689.3526819</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731608689.3526819.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+          <t>./test_images/SBER1731608689.3526819.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>283.26</v>
       </c>
-      <c r="J15" t="n">
-        <v>283.26</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>282.91</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.3499999999999659</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731608691.076933</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731608692.5092406</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731608691.076933.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731608692.5092406.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>130.91</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>131.18</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.2700000000000102</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -1251,51 +1351,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731608695.572108</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731608696.1173737</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731608695.572108.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731608696.1173737.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>131.26</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>131.25</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.009999999999990905</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -1303,51 +1409,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731608697.5042903</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731608697.9833302</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731608697.5042903.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731608697.9833302.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>131.06</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>130.91</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.1500000000000057</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1355,95 +1467,107 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731608699.102201</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731608699.102201.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+          <t>./test_images/GAZP1731608699.102201.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>130.86</v>
       </c>
-      <c r="J19" t="n">
-        <v>130.86</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>130.8</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731608702.7802653</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731608704.310575</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731608702.7802653.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731608704.310575.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6513</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6509.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-3.5</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1451,51 +1575,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731608706.6962585</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731608707.5342987</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731608706.6962585.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731608707.5342987.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6490</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6461.5</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>28.5</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -1503,95 +1633,107 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731608708.0848105</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731608708.0848105.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+          <t>./test_images/LKOH1731608708.0848105.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6466</v>
       </c>
-      <c r="J22" t="n">
-        <v>6466</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>6461</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731608708.7914526</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731608709.3708224</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731608708.7914526.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731608709.3708224.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>503.2</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>502.55</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.6499999999999773</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1599,51 +1741,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731608710.0835176</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731608710.2404504</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731608710.0835176.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731608710.2404504.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>502.45</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>501.5</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.9499999999999886</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1651,51 +1799,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731608710.6621318</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731608711.3546104</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731608710.6621318.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731608711.3546104.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>502.2</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>504.8</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-2.600000000000023</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-0.52</v>
       </c>
     </row>
@@ -1703,51 +1857,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731608712.1108193</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731608712.4438133</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731608712.1108193.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731608712.4438133.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>504.45</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>503.7</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.75</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -1755,51 +1915,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731608713.6042643</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731608715.289807</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731608713.6042643.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731608715.289807.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>503.35</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>503.8</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.4499999999999886</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -1807,51 +1973,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731608716.3702486</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731608716.7943566</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731608716.3702486.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731608716.7943566.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>503</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>502.1</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.8999999999999773</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1859,95 +2031,107 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731608717.9665556</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731608717.9665556.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+          <t>./test_images/ROSN1731608717.9665556.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>501.3</v>
       </c>
-      <c r="J29" t="n">
-        <v>501.3</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>501.5</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731608718.4862952</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731608719.7769315</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731608718.4862952.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731608719.7769315.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>226.17</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>226.02</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.1499999999999773</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -1955,51 +2139,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731608721.1128168</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731608721.171026</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731608721.1128168.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731608721.171026.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>225.8</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>225.78</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.02000000000001023</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2007,51 +2197,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731608721.2337306</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731608721.493042</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731608721.2337306.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731608721.493042.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>225.77</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>225.8</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -2059,51 +2255,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731608722.376638</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731608722.4325151</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731608722.376638.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731608722.4325151.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>225.62</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>225.61</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.009999999999990905</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2111,51 +2313,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731608722.6028557</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731608723.1158547</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731608722.6028557.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731608723.1158547.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>225.6</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>225.53</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.06999999999999318</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2163,95 +2371,107 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731608727.0237596</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731608727.0237596.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+          <t>./test_images/MOEX1731608727.0237596.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>224.54</v>
       </c>
-      <c r="J35" t="n">
-        <v>224.54</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>224.3</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.2399999999999807</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731608728.3864062</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731608728.682512</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731608728.3864062.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731608728.682512.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1061.4</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1061.8</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.3999999999998636</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2259,51 +2479,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731608732.1679094</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731608732.4553292</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731608732.1679094.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731608732.4553292.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1064.8</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1064.8</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2311,51 +2537,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731608733.9516928</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731608735.6425014</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731608733.9516928.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731608735.6425014.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1064</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>1060.2</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-3.799999999999955</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -2363,51 +2595,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731608735.6584578</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731608736.037589</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731608735.6584578.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731608736.037589.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1060.2</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1059.6</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.6000000000001364</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2415,51 +2653,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731608736.8429878</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731608736.9060183</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731608736.8429878.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731608736.9060183.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1059.2</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1057.6</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>1.600000000000136</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -2467,51 +2711,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731608738.741615</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731608739.1780338</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CNY1731608738.741615.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CNY1731608739.1780338.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>12.202</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>12.205</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.003000000000000114</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2519,51 +2769,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731608745.3848443</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731608745.9549046</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/CNY1731608745.3848443.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/CNY1731608745.9549046.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>12.153</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>12.104</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.04900000000000126</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -2571,51 +2827,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731608747.9168289</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731608748.17268</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731608747.9168289.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731608748.17268.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>127.36</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>127.1</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.2600000000000051</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -2623,51 +2885,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731608748.3255665</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731608748.3833494</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731608748.3255665.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731608748.3833494.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>127.1</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>127</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.09999999999999432</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2675,51 +2943,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731608749.3885756</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731608749.485781</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731608749.3885756.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731608749.485781.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>126.88</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>127</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.1200000000000045</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -2727,51 +3001,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731608750.625198</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731608752.4303713</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731608750.625198.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731608752.4303713.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>127.28</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>127.5</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2779,51 +3059,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731608754.6771784</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731608755.0136025</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731608754.6771784.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731608755.0136025.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>126.92</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>126.86</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2831,51 +3117,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731608755.0721073</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731608755.2228353</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731608755.0721073.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731608755.2228353.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>126.9</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>126.9</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2883,51 +3175,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731608757.504158</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731608757.6464756</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731608757.504158.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731608757.6464756.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>165.38</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>165.38</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2935,51 +3233,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731608759.333449</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731608760.615647</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731608759.333449.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731608760.615647.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>164.94</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>164.98</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.03999999999999204</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -2987,51 +3291,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731608764.914298</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731608765.064975</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731608764.914298.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731608765.064975.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>164.8</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>164.32</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.4800000000000182</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -3039,51 +3349,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731608769.64221</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731608769.9766884</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731608769.64221.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731608769.9766884.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>50.58</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>50.585</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.005000000000002558</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -3091,51 +3407,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731608773.6402726</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731608774.0801558</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731608773.6402726.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731608774.0801558.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>50.315</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>50.18</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.134999999999998</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -3143,95 +3465,107 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731608774.5983934</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731608774.5983934.png</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+          <t>./test_images/MAGN1731608774.5983934.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>50.215</v>
       </c>
-      <c r="J54" t="n">
-        <v>50.215</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>50.14</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.07500000000000284</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731608782.874315</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731608783.1621904</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731608782.874315.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731608783.1621904.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>1404.8</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>1398.2</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>6.599999999999909</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -3239,95 +3573,107 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731608783.908759</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731608783.908759.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+          <t>./test_images/CHMF1731608783.908759.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>1400.8</v>
       </c>
-      <c r="J56" t="n">
-        <v>1400.8</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1401</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.2000000000000455</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731608786.36653</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731608786.895199</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731608786.36653.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731608786.895199.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>59.72</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>59.72</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3335,51 +3681,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731608792.3743155</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731608792.453983</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731608792.3743155.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731608792.453983.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>59.62</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>59.64</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.02000000000000313</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -3387,51 +3739,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731608792.5627396</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731608793.4386222</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731608792.5627396.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731608793.4386222.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>59.64</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>59.5</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -3439,95 +3797,107 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731608793.4974651</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731608793.4974651.png</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+          <t>./test_images/ALRS1731608793.4974651.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>59.55</v>
       </c>
-      <c r="J60" t="n">
-        <v>59.55</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>59.59</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.04000000000000625</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731608794.6769843</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731608794.873937</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731608794.6769843.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731608794.873937.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>101.59</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>101.4</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -3535,51 +3905,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731608796.6517115</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731608797.6495984</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731608796.6517115.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731608797.6495984.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>101.29</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>101.71</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.4199999999999875</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>-0.41</v>
       </c>
     </row>
@@ -3587,51 +3963,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731608800.1829941</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731608800.477221</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731608800.1829941.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731608800.477221.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>101.8</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>101.72</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.07999999999999829</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -3639,51 +4021,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731608801.6394088</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731608802.0744069</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731608801.6394088.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731608802.0744069.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>101.53</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>101.47</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -3691,51 +4079,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731608803.5963833</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731608803.6596265</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731608803.5963833.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731608803.6596265.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>101.19</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>101.09</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.09999999999999432</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -3743,95 +4137,107 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731608803.835097</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731608803.835097.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+          <t>./test_images/VTBR1731608803.835097.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>101.09</v>
       </c>
-      <c r="J66" t="n">
-        <v>101.09</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>101.06</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.03000000000000114</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731608810.94705</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731608811.1695504</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/SELG1731608810.94705.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/SELG1731608811.1695504.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>56.87</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>56.87</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3839,51 +4245,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731608811.2254765</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731608811.5215442</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/SELG1731608811.2254765.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/SELG1731608811.5215442.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>56.88</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>56.9</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.01999999999999602</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -3891,51 +4303,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731608813.4158523</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731608815.0552108</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731608813.4158523.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731608815.0552108.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>157.86</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>158</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-0.1399999999999864</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -3943,51 +4361,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731608817.3924549</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731608817.774631</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731608817.3924549.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731608817.774631.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>157.7</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>157.32</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -3995,95 +4419,107 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731608819.746119</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731608819.746119.png</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+          <t>./test_images/SOFL1731608819.746119.png</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>156.88</v>
       </c>
-      <c r="J71" t="n">
-        <v>156.88</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>156.98</v>
+      </c>
+      <c r="M71" t="n">
+        <v>-0.09999999999999432</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731608820.3035588</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731608820.7600358</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731608820.3035588.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731608820.7600358.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>0.3107</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>0.311</v>
       </c>
-      <c r="K72" t="n">
-        <v>-0.000299999999999967</v>
-      </c>
-      <c r="L72" t="n">
+      <c r="M72" t="n">
+        <v>-0.0003000000000000225</v>
+      </c>
+      <c r="N72" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -4091,51 +4527,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731608836.831602</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731608837.1518939</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731608836.831602.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731608837.1518939.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>20.768</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>20.738</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -4143,51 +4585,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731608837.6288886</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731608837.985661</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731608837.6288886.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731608837.985661.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>693.8</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>694.95</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>1.150000000000091</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -4195,51 +4643,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731608839.2946038</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731608840.4990013</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731608839.2946038.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731608840.4990013.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>692.1</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>692.55</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-0.4499999999999318</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -4247,44 +4701,50 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731608853.9089627</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731608853.9089627.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+          <t>./test_images/MTLR1731608853.9089627.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>156.71</v>
       </c>
-      <c r="J76" t="n">
-        <v>156.71</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>156.26</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.4500000000000171</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
@@ -4345,19 +4805,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.9200000000000159</v>
+        <v>-0.57000000000005</v>
       </c>
       <c r="C2" t="n">
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.102222222222224</v>
+        <v>-0.06333333333333889</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3300000000000001</v>
+        <v>-0.21</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="3">
@@ -4367,16 +4827,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.300000000000068</v>
+        <v>-1.500000000000057</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1857142857142955</v>
+        <v>-0.2142857142857224</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.26</v>
+        <v>-0.3</v>
       </c>
       <c r="F3" t="n">
         <v>-0.04</v>
@@ -4389,16 +4849,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1499999999999915</v>
+        <v>-0.1199999999999903</v>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.02499999999999858</v>
+        <v>-0.01999999999999839</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.14</v>
+        <v>-0.11</v>
       </c>
       <c r="F4" t="n">
         <v>-0.02</v>
@@ -4433,19 +4893,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2199999999999704</v>
+        <v>0.4599999999999511</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03666666666666174</v>
+        <v>0.07666666666665851</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7">
@@ -4477,19 +4937,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5500000000000114</v>
+        <v>0.8100000000000023</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1375000000000028</v>
+        <v>0.2025000000000006</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2</v>
+        <v>0.29</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4959,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.410000000000025</v>
+        <v>0.4700000000000273</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1025000000000063</v>
+        <v>0.1175000000000068</v>
       </c>
       <c r="E9" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="10">
@@ -4521,19 +4981,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1199999999999974</v>
+        <v>0.07999999999999119</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02999999999999936</v>
+        <v>0.0199999999999978</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="11">
@@ -4543,19 +5003,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>8.333333333333334</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>0.39</v>
+        <v>0.47</v>
       </c>
       <c r="F11" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="12">
@@ -4565,19 +5025,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1400000000000006</v>
+        <v>0.2150000000000034</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04666666666666686</v>
+        <v>0.07166666666666781</v>
       </c>
       <c r="E12" t="n">
-        <v>0.28</v>
+        <v>0.43</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="13">
@@ -4587,19 +5047,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2400000000000091</v>
+        <v>0.1400000000000148</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08000000000000303</v>
+        <v>0.0466666666666716</v>
       </c>
       <c r="E13" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="14">
@@ -4697,19 +5157,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.599999999999909</v>
+        <v>6.399999999999864</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>3.299999999999955</v>
+        <v>3.199999999999932</v>
       </c>
       <c r="E18" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="F18" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="19">
@@ -4741,19 +5201,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.4500000000000171</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.4500000000000171</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="21">
@@ -4763,13 +5223,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.000299999999999967</v>
+        <v>-0.0003000000000000225</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.000299999999999967</v>
+        <v>-0.0003000000000000225</v>
       </c>
       <c r="E21" t="n">
         <v>-0.1</v>
